--- a/REGULAR/GATPANDAN, NENITA.xlsx
+++ b/REGULAR/GATPANDAN, NENITA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F275EDA5-A44E-420F-89E0-D53FC45E3F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F294E208-BDFB-400A-A4B8-13E87FB2D9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -273,6 +265,18 @@
   </si>
   <si>
     <t>12/15-16,19-21</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>11/18,25</t>
+  </si>
+  <si>
+    <t>1/26,27/2023</t>
   </si>
 </sst>
 </file>
@@ -1296,9 +1300,9 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="4308" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="E9:I9"/>
-      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
+      <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,7 +1461,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>252.82900000000001</v>
+        <v>253.32900000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1467,7 +1471,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>199.25</v>
+        <v>199.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2992,11 +2996,15 @@
       <c r="A79" s="40">
         <v>44866</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
-      <c r="D79" s="39"/>
+      <c r="D79" s="39">
+        <v>2</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13">
@@ -3006,7 +3014,9 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
@@ -3035,7 +3045,9 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="48" t="s">
+        <v>77</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -3051,31 +3063,45 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="A82" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H82" s="39"/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H82" s="39">
+        <v>2</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>44958</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -3083,7 +3109,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>44986</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -3099,7 +3127,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45017</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -3115,7 +3145,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45047</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -3131,7 +3163,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45078</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -3147,7 +3181,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45108</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -3163,7 +3199,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45139</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -3179,7 +3217,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45170</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -3195,7 +3235,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45200</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -3211,7 +3253,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45231</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -3227,7 +3271,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45261</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -3243,7 +3289,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45292</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -3259,7 +3307,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45323</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -3275,7 +3325,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45352</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -3291,7 +3343,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45383</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -3307,7 +3361,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45413</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3323,7 +3379,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45444</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -3339,7 +3397,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45474</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -3355,7 +3415,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45505</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3371,7 +3433,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45536</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3387,7 +3451,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45566</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3403,7 +3469,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45597</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3419,7 +3487,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45627</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3435,7 +3505,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45658</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3451,7 +3523,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45689</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -3467,7 +3541,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45717</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3483,7 +3559,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>45748</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -3499,7 +3577,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>45778</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3515,7 +3595,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>45809</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -3531,7 +3613,9 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>45839</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -3547,7 +3631,9 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>45870</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -3563,7 +3649,9 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>45901</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -3579,7 +3667,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>45931</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -3595,7 +3685,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>45962</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -3611,7 +3703,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>45992</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -3627,7 +3721,9 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>46023</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -3643,7 +3739,9 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>46054</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -3659,7 +3757,9 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <v>46082</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -3675,7 +3775,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>46113</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -3691,7 +3793,9 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>46143</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -3707,7 +3811,9 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>46174</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -3723,7 +3829,9 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
+      <c r="A124" s="40">
+        <v>46204</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -3739,7 +3847,9 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>46235</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -3755,7 +3865,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>46266</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -3771,7 +3883,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>46296</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -3864,7 +3978,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -3881,8 +3995,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                           OIC - HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/REGULAR/GATPANDAN, NENITA.xlsx
+++ b/REGULAR/GATPANDAN, NENITA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F294E208-BDFB-400A-A4B8-13E87FB2D9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E53C035-60B3-4645-B7C0-9C43424AAB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -277,6 +277,18 @@
   </si>
   <si>
     <t>1/26,27/2023</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE I</t>
+  </si>
+  <si>
+    <t>LIBRARY</t>
+  </si>
+  <si>
+    <t>3/7,13/2023</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1300,9 +1312,9 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A75" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="E9:I9"/>
-      <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
+      <pane ySplit="4308" topLeftCell="A80" activePane="bottomLeft"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1345,7 +1357,9 @@
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="51" t="s">
+        <v>81</v>
+      </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -1370,7 +1384,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="52" t="s">
+        <v>82</v>
+      </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -1461,7 +1477,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>253.32900000000001</v>
+        <v>254.57900000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1471,7 +1487,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>199.75</v>
+        <v>199</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3112,25 +3128,35 @@
       <c r="A84" s="40">
         <v>44986</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="B84" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H84" s="39"/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H84" s="39">
+        <v>2</v>
+      </c>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45017</v>
       </c>
-      <c r="B85" s="20"/>
+      <c r="B85" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>

--- a/REGULAR/GATPANDAN, NENITA.xlsx
+++ b/REGULAR/GATPANDAN, NENITA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E53C035-60B3-4645-B7C0-9C43424AAB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A28BEED-2643-47E6-B092-A6480DDBADB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -288,7 +288,7 @@
     <t>3/7,13/2023</t>
   </si>
   <si>
-    <t>s</t>
+    <t>3/8,9,10/2023</t>
   </si>
 </sst>
 </file>
@@ -980,7 +980,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1309,12 +1309,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4308" topLeftCell="A80" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3151,11 +3151,9 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -3168,11 +3166,13 @@
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3568,7 +3568,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3586,7 +3586,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3927,7 +3927,9 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <v>46296</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -3975,20 +3977,36 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="41"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4004,7 +4022,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
